--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -810,7 +810,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -833,12 +833,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -961,14 +998,26 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1577,8 +1626,8 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,7 +1661,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="51" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="47"/>
@@ -1637,7 +1686,7 @@
       <c r="A6" s="49">
         <v>1</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="52" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="49" t="s">
@@ -1651,7 +1700,7 @@
       <c r="A7" s="49">
         <v>2</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="52" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="49" t="s">
@@ -1668,7 +1717,7 @@
       <c r="D8" s="47"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="51" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="47"/>
@@ -1693,13 +1742,13 @@
       <c r="A11" s="49">
         <v>1</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="53" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="50" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1707,7 +1756,7 @@
       <c r="A12" s="49">
         <v>2</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="56" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="49" t="s">
@@ -1721,7 +1770,7 @@
       <c r="A13" s="49">
         <v>3</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="49" t="s">
@@ -1735,13 +1784,13 @@
       <c r="A14" s="49">
         <v>4</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="56" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="50" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1749,7 +1798,7 @@
       <c r="A15" s="49">
         <v>5</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="55" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="49" t="s">
@@ -1766,7 +1815,7 @@
       <c r="D16" s="47"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="51" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="47"/>
@@ -1804,7 +1853,7 @@
       <c r="D20" s="47"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="51" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="47"/>
@@ -1854,7 +1903,7 @@
       <c r="D26" s="47"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="51" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="47"/>
@@ -1928,7 +1977,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2170,13 +2220,13 @@
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
     </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="29"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="29"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
@@ -2431,13 +2481,13 @@
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
     </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="29"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="29"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
@@ -2692,13 +2742,13 @@
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
     </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="29"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="29"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
@@ -2921,7 +2971,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>13</v>
       </c>
@@ -2935,31 +2985,31 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
     </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="29"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="29"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
